--- a/Contacts.xlsx
+++ b/Contacts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Backend\Personal Project\Project 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Backend\Personal Project\Project 2\Mail_sender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E05730-537F-48FB-9E19-C9521EBC1B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C814B4-DADA-44AF-A560-F191C52E5298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="241">
   <si>
     <t>Name</t>
   </si>
@@ -40,18 +40,12 @@
     <t>Head of Talent Acquisition</t>
   </si>
   <si>
-    <t>HR</t>
-  </si>
-  <si>
     <t>Rohan Verma</t>
   </si>
   <si>
     <t>Incubator Lead</t>
   </si>
   <si>
-    <t>Program Manager</t>
-  </si>
-  <si>
     <t>Anjali Mehta</t>
   </si>
   <si>
@@ -80,13 +74,682 @@
   </si>
   <si>
     <t>hanselhagid@gmail.com</t>
+  </si>
+  <si>
+    <t>Prof. Ravi Toteja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Deepankar </t>
+  </si>
+  <si>
+    <t>Dr. Shashi Kant</t>
+  </si>
+  <si>
+    <t>Dr. Ved Prakash Singh</t>
+  </si>
+  <si>
+    <t>Dr. Neetu Bhattacharya</t>
+  </si>
+  <si>
+    <t>Aditi Dwivedi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arnav Malhotra </t>
+  </si>
+  <si>
+    <t>Dr. Indu Choudhary</t>
+  </si>
+  <si>
+    <t>Dr. Satyendra Kumar</t>
+  </si>
+  <si>
+    <t>Dr. Madhu Rani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sir/ Mam </t>
+  </si>
+  <si>
+    <t>Mr. Sabyasachi Kar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof. Madhu Pruti </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms Nisha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Nidhi Bhandari </t>
+  </si>
+  <si>
+    <t>Prof. Archna Kumar</t>
+  </si>
+  <si>
+    <t>Dr. Poonam Magu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms Shalini Singh </t>
+  </si>
+  <si>
+    <t>Miss Neha Dilwali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof. Gauri Mishra </t>
+  </si>
+  <si>
+    <t>Ms. Deepika Jindal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Shailu Singh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms Himanshi </t>
+  </si>
+  <si>
+    <t>Mr. Nishant Jaiswal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof Meena Rao </t>
+  </si>
+  <si>
+    <t>Prof.(Dr) Vikas Nath</t>
+  </si>
+  <si>
+    <t>Dr. Sanjeev Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Archana Bhatia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof. (Dr.) Deepshikha Kalra </t>
+  </si>
+  <si>
+    <t>CA Dr. Anupama Sharma</t>
+  </si>
+  <si>
+    <t>Prof. Vivek Kuchhal</t>
+  </si>
+  <si>
+    <t>Dr. Richa Dahiya</t>
+  </si>
+  <si>
+    <t>Aadya Kaktikar</t>
+  </si>
+  <si>
+    <t>Ms. Anita Marwaha</t>
+  </si>
+  <si>
+    <t>Prof. Manju Khatri</t>
+  </si>
+  <si>
+    <t>Dr. M.P.S. Bhatia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms Richa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sir/Madam </t>
+  </si>
+  <si>
+    <t>Ms. Kavita Khanna</t>
+  </si>
+  <si>
+    <t>Dr Moumita Acharyya</t>
+  </si>
+  <si>
+    <t>Ms. Shhilpi Sinha</t>
+  </si>
+  <si>
+    <t>Mr. Rajesh Kumar</t>
+  </si>
+  <si>
+    <t>Ms. Suparna Kapur</t>
+  </si>
+  <si>
+    <t>Dr. Vibha Thakur</t>
+  </si>
+  <si>
+    <t>Mr. Mohit Singh</t>
+  </si>
+  <si>
+    <t>Dr. Shweta Bajaj</t>
+  </si>
+  <si>
+    <t>Prof. (Dr.) Bhupinder Kaur Anand</t>
+  </si>
+  <si>
+    <t>Kshitij Kumar Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Dharamveer </t>
+  </si>
+  <si>
+    <t>Madam/ Sir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madam/Sir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aalok Thakkar </t>
+  </si>
+  <si>
+    <t>Mr. Akhilesh Chandra</t>
+  </si>
+  <si>
+    <t>Mr. Piyush Garg</t>
+  </si>
+  <si>
+    <t>Dr. Tanuja Saroha</t>
+  </si>
+  <si>
+    <t>Santanil Dasgupta</t>
+  </si>
+  <si>
+    <t>Ms. Geeta Kukreja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Satya </t>
+  </si>
+  <si>
+    <t>Dr. Neha Jain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms Deepa Bhandari </t>
+  </si>
+  <si>
+    <t>Mr. Pranav Gupta</t>
+  </si>
+  <si>
+    <t>Ms. Manisha Chaudhry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms Chahat Wadhwa </t>
+  </si>
+  <si>
+    <t>Dr. H.S. Rawat</t>
+  </si>
+  <si>
+    <t>Ms. Neha Chauhan</t>
+  </si>
+  <si>
+    <t>Dr. Meenakshi Rao</t>
+  </si>
+  <si>
+    <t>Dr. Parveen Poon Terang</t>
+  </si>
+  <si>
+    <t>Dr Praveen Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr Sarthi </t>
+  </si>
+  <si>
+    <t>Mr. Hemant Sharma</t>
+  </si>
+  <si>
+    <t>Mr. Rajesh Kumar Upadhyay</t>
+  </si>
+  <si>
+    <t>Mr. Naman Kataria</t>
+  </si>
+  <si>
+    <t>Dr. Rakesh K Singh</t>
+  </si>
+  <si>
+    <t>Ms. Anuradha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Anne </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms Krishna Priya </t>
+  </si>
+  <si>
+    <t>Mr. Arvind Kumar Sharma</t>
+  </si>
+  <si>
+    <t>Ms. Priyanka Sharma</t>
+  </si>
+  <si>
+    <t>Mr. Varun Malik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr Ashish </t>
+  </si>
+  <si>
+    <t>Mr. Sudhir Sharma</t>
+  </si>
+  <si>
+    <t>Mr. Satyaban Behuria</t>
+  </si>
+  <si>
+    <t>Mr. Ritesh Pahuja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Praveen Singla </t>
+  </si>
+  <si>
+    <t>principal@andc.du.ac.in</t>
+  </si>
+  <si>
+    <t>deepankar786du@hotmail.com</t>
+  </si>
+  <si>
+    <t>shashikant@dcac.du.ac.in</t>
+  </si>
+  <si>
+    <t>placementcell@dsc.du.ac.in</t>
+  </si>
+  <si>
+    <t>placement.cell@gargi.du.ac.in</t>
+  </si>
+  <si>
+    <t>placements@hinducollege.ac.in</t>
+  </si>
+  <si>
+    <t>induchoudhary@kalindi.du.ac.in</t>
+  </si>
+  <si>
+    <t>sksrivastava@kmc.du.ac.in</t>
+  </si>
+  <si>
+    <t>madhupriya1999@gmail.com</t>
+  </si>
+  <si>
+    <t>principal-autch@delhi.gov.in</t>
+  </si>
+  <si>
+    <t>principaldducollege@ddu.du.ac.in</t>
+  </si>
+  <si>
+    <t>skar@iegindia.org</t>
+  </si>
+  <si>
+    <t>principal@keshav.du.ac.in</t>
+  </si>
+  <si>
+    <t>nisha@dpsru.edu.in</t>
+  </si>
+  <si>
+    <t>info@aditi.du.ac.in</t>
+  </si>
+  <si>
+    <t>bnc.kair@gmail.com</t>
+  </si>
+  <si>
+    <t>opustpc@bharati.du.ac.in</t>
+  </si>
+  <si>
+    <t>principal@bcas.du.ac.in</t>
+  </si>
+  <si>
+    <t>info@drbrambedkarcollege.ac.in</t>
+  </si>
+  <si>
+    <t>prcoa.delhi@delhi.gov.in</t>
+  </si>
+  <si>
+    <t>nidhi.b@knc.edu.in</t>
+  </si>
+  <si>
+    <t>archna@lic.du.ac.in</t>
+  </si>
+  <si>
+    <t>poonam.magu@ihe.du.ac.in</t>
+  </si>
+  <si>
+    <t>shalinisingh@jdm.du.ac.in</t>
+  </si>
+  <si>
+    <t>reachnehadilwali@gmail.com</t>
+  </si>
+  <si>
+    <t>gaurika1965@gmail.com</t>
+  </si>
+  <si>
+    <t>deepika@dr.du.ac.in</t>
+  </si>
+  <si>
+    <t>placementhansraj@hrc.du.ac.in</t>
+  </si>
+  <si>
+    <t>placement@tips.edu.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nishant.jaiswal@lldims.org.in </t>
+  </si>
+  <si>
+    <t>meenarao@msit.in</t>
+  </si>
+  <si>
+    <t>director.gibs@gitarattan.edu.in</t>
+  </si>
+  <si>
+    <t>guptasanjeev1968@gmail.com</t>
+  </si>
+  <si>
+    <t>director@maims.ac.in</t>
+  </si>
+  <si>
+    <t>vipsedu@vips.edu</t>
+  </si>
+  <si>
+    <t>directortias@tecnia.in</t>
+  </si>
+  <si>
+    <t>info@isiconline.org</t>
+  </si>
+  <si>
+    <t>crmc@jimsindia.org</t>
+  </si>
+  <si>
+    <t>info@davccfbd.com</t>
+  </si>
+  <si>
+    <t>deanmeri@meri.edu.in</t>
+  </si>
+  <si>
+    <t>anupama.sharma@jagannath.org</t>
+  </si>
+  <si>
+    <t>director@dspsr.in</t>
+  </si>
+  <si>
+    <t>dean@jkbschool.org</t>
+  </si>
+  <si>
+    <t>aadya.kaktikar@snu.edu.in</t>
+  </si>
+  <si>
+    <t>kmkharkhoda@gmail.com</t>
+  </si>
+  <si>
+    <t>vkmodi@amity.edu</t>
+  </si>
+  <si>
+    <t>info@ajipt.org</t>
+  </si>
+  <si>
+    <t>anita.marwaha@jiit.ac.in</t>
+  </si>
+  <si>
+    <t>sunil.chourasia@glbitm.ac.in</t>
+  </si>
+  <si>
+    <t>placements@nsut.ac.in</t>
+  </si>
+  <si>
+    <t>intpoly@yahoo.com</t>
+  </si>
+  <si>
+    <t>coedelhi@bharatividyapeeth.edu</t>
+  </si>
+  <si>
+    <t>director@cbscolleges.com</t>
+  </si>
+  <si>
+    <t>info@dicsindia.in</t>
+  </si>
+  <si>
+    <t>mait@mait.ac.in</t>
+  </si>
+  <si>
+    <t>admissions@manavrachna.edu.in</t>
+  </si>
+  <si>
+    <t>admissions@gngroup.org</t>
+  </si>
+  <si>
+    <t>tpo@ieccollege.com</t>
+  </si>
+  <si>
+    <t>dir.adm-exam@sau.int</t>
+  </si>
+  <si>
+    <t>moumita.acharyya@terisas.ac.in</t>
+  </si>
+  <si>
+    <t>shhilpi.vaka@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hmritmdirector@gmail.com </t>
+  </si>
+  <si>
+    <t>info.ubs@iilm.edu</t>
+  </si>
+  <si>
+    <t>contact@iwpacademy.com</t>
+  </si>
+  <si>
+    <t>admin.college@mbsarchitecture.org.in</t>
+  </si>
+  <si>
+    <t>Rajeshkumar@sushantuniversity.edu.in</t>
+  </si>
+  <si>
+    <t>suparna.kapur@sharda.ac.in</t>
+  </si>
+  <si>
+    <t>director.cdc@krmangalam.edu.in</t>
+  </si>
+  <si>
+    <t>mohit.si@rishihood.edu.in</t>
+  </si>
+  <si>
+    <t>dswnoida@muit.in</t>
+  </si>
+  <si>
+    <t>principal@alfalahuniversity.edu.in</t>
+  </si>
+  <si>
+    <t>kshitijk.singh@asu.apeejay.edu</t>
+  </si>
+  <si>
+    <t>admin@mrk.ac.in</t>
+  </si>
+  <si>
+    <t>info@adhunikgroup.org</t>
+  </si>
+  <si>
+    <t>admission.ec@its.edu.in</t>
+  </si>
+  <si>
+    <t>admissions@eitfaridabad.co.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crd@mangalmay.org </t>
+  </si>
+  <si>
+    <t>info@sbit.in</t>
+  </si>
+  <si>
+    <t>info@iitm.tech</t>
+  </si>
+  <si>
+    <t>aalok.thakkar@ashoka.edu.in</t>
+  </si>
+  <si>
+    <t>akhilesh.chandra@gdgu.org</t>
+  </si>
+  <si>
+    <t>Piyush.Garg@liet.in</t>
+  </si>
+  <si>
+    <t>admin@rdias.ac.in</t>
+  </si>
+  <si>
+    <t>santanil.dasgupta@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>geeta.kukreja@gateway.edu.in</t>
+  </si>
+  <si>
+    <t>info@pdm.ac.in</t>
+  </si>
+  <si>
+    <t>placements.riet@rawalinstitutions.com</t>
+  </si>
+  <si>
+    <t>queries@sddgpi.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">placements@acem.edu.in </t>
+  </si>
+  <si>
+    <t>klmdnplacement@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deepa.bhandari@cpj.edu.in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">psct.placements@dtu.ac.in </t>
+  </si>
+  <si>
+    <t>director_cpdd@galgotiasuniversity.edu.in</t>
+  </si>
+  <si>
+    <t>collegefairfield@gmail.com, chahatfimtofficial@gmail.com, fimtevents@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">msit.tpo@gmail, director.tpo@msit.in </t>
+  </si>
+  <si>
+    <t>cdc@ggnindia.dronacharya.info</t>
+  </si>
+  <si>
+    <t>meenakshi.rao@nbgsmc.ac.in</t>
+  </si>
+  <si>
+    <t>tpo@jssaten.ac.in</t>
+  </si>
+  <si>
+    <t>1974pbhardwaj@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">directortnp_gn@iimtindia.net </t>
+  </si>
+  <si>
+    <t>ait.newdelhi@gmail.com</t>
+  </si>
+  <si>
+    <t>director.admissions@starexuniversity.co.in</t>
+  </si>
+  <si>
+    <t>tpo@akgec.ac.in</t>
+  </si>
+  <si>
+    <t>gtbit.ipu.delhi@gmail.com</t>
+  </si>
+  <si>
+    <t>rakesh.singh@bennett.edu.in</t>
+  </si>
+  <si>
+    <t>info@bsates.com</t>
+  </si>
+  <si>
+    <t>anne.fotedar@ecole-intuit-lab.com</t>
+  </si>
+  <si>
+    <t>arvind.sharma@niet.co.in</t>
+  </si>
+  <si>
+    <t>priyankasharma@bpitindia.com</t>
+  </si>
+  <si>
+    <t>varun.malik@sharda.ac.in</t>
+  </si>
+  <si>
+    <t>tpoacmtagra@gmail.com</t>
+  </si>
+  <si>
+    <t>placements@iitmjp.ac.in</t>
+  </si>
+  <si>
+    <t>satyaban@bbdu.ac.in</t>
+  </si>
+  <si>
+    <t>ritesh.pahuja@rkgit.edu.in</t>
+  </si>
+  <si>
+    <t>Psingla@ggn.amity.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Principal </t>
+  </si>
+  <si>
+    <t>Convenor</t>
+  </si>
+  <si>
+    <t>Founder &amp; Chairman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convener </t>
+  </si>
+  <si>
+    <t>President</t>
+  </si>
+  <si>
+    <t>Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Director </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asst Registrar </t>
+  </si>
+  <si>
+    <t>Vice Principal and Officiating Director</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President (Placement Cell) </t>
+  </si>
+  <si>
+    <t>Coordinator</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPO </t>
+  </si>
+  <si>
+    <t>Dean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOD </t>
+  </si>
+  <si>
+    <t>Dean Academic</t>
+  </si>
+  <si>
+    <t>HOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordinator </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dean </t>
+  </si>
+  <si>
+    <t>Director - Placements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Director - Placement Cell </t>
+  </si>
+  <si>
+    <t>Director - Career Development Centre</t>
+  </si>
+  <si>
+    <t>Convener</t>
+  </si>
+  <si>
+    <t>SPOC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -106,16 +769,47 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor rgb="FF999999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -123,15 +817,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -351,10 +1095,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -384,74 +1128,1698 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
+      <c r="D2" s="17" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
+      <c r="D3" s="17" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="B7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C82" s="3"/>
+      <c r="D82" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C87" s="3"/>
+      <c r="D87" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C88" s="3"/>
+      <c r="D88" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89" s="3"/>
+      <c r="D89" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" s="3"/>
+      <c r="D90" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C96" s="3"/>
+      <c r="D96" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C97" s="3"/>
+      <c r="D97" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C98" s="3"/>
+      <c r="D98" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C100" s="3"/>
+      <c r="D100" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C102" s="3"/>
+      <c r="D102" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C112" s="3"/>
+      <c r="D112" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="9"/>
+      <c r="B118" s="9"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D119" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C120" s="3"/>
+      <c r="D120" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="9"/>
+      <c r="B121" s="9"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="9"/>
+      <c r="B125" s="9"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="9"/>
+      <c r="B127" s="15"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B128" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="9"/>
+      <c r="B129" s="9"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B130" t="s">
+        <v>213</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>229</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -459,6 +2827,7 @@
     <hyperlink ref="B3" r:id="rId2" xr:uid="{88F38E4D-706F-4F04-A600-A42F28DC0F9E}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{2D04185E-7453-435A-B58C-9E72B2CA13A7}"/>
     <hyperlink ref="B4" r:id="rId4" xr:uid="{36DDBCB9-F239-4C3D-A38B-DD29A74F426A}"/>
+    <hyperlink ref="B57" r:id="rId5" display="mailto:sunil.chourasia@glbitm.ac.in" xr:uid="{CE6914A5-F843-4D9E-A84C-AB578D3ABE77}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
